--- a/required-files/inputs_file.xlsx
+++ b/required-files/inputs_file.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Beatson\negative DESI ibds and imzMLs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-hub-repositories\adhoc-data-processing-pipeline\required-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6405" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="7335" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="67">
   <si>
     <t>Outputs path</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Peak Assignments</t>
   </si>
   <si>
-    <t>Beatson 2</t>
-  </si>
-  <si>
     <t>General Information</t>
   </si>
   <si>
@@ -227,13 +224,13 @@
     <t>Ratio of Amplitudes Threshold</t>
   </si>
   <si>
-    <t>100, 1000, 4000</t>
-  </si>
-  <si>
     <t>95, 99</t>
   </si>
   <si>
-    <t>X:\Beatson\dpo mva article\negative DESI\</t>
+    <t>PDAC</t>
+  </si>
+  <si>
+    <t>X:\negDESIprocessing\</t>
   </si>
 </sst>
 </file>
@@ -601,6 +598,33 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -637,9 +661,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -648,30 +669,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,7 +953,7 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -970,51 +967,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
+      <c r="A1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
@@ -1023,76 +1020,76 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="50"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52" t="s">
-        <v>60</v>
+      <c r="A12" s="50"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>20</v>
@@ -1102,112 +1099,112 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="21">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="34" t="s">
-        <v>62</v>
-      </c>
       <c r="E14" s="21" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="55" t="s">
+      <c r="A15" s="50"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D16" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="50"/>
+      <c r="B18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="46" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="16" t="s">
         <v>20</v>
       </c>
@@ -1216,9 +1213,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="16" t="s">
         <v>10</v>
       </c>
@@ -1227,67 +1224,65 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="45"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="54"/>
       <c r="D24" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="37"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="46"/>
       <c r="D26" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="31">
-        <v>4</v>
-      </c>
+      <c r="E27" s="31"/>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
+      <c r="B28" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="6" t="s">
         <v>18</v>
       </c>
@@ -1299,8 +1294,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="48"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="6" t="s">
         <v>4</v>
       </c>
@@ -1308,40 +1303,40 @@
         <v>20</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="48"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="48"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="52"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>20</v>
@@ -1351,10 +1346,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="48"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>20</v>
@@ -1364,23 +1359,23 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="48"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="52"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>20</v>
@@ -1390,102 +1385,102 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="48"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" s="33" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="48"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D38" s="32" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="47" t="s">
+      <c r="A39" s="52"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+    </row>
+    <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="52"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="52"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="52"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-    </row>
-    <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="47" t="s">
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+    </row>
+    <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="52"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="52"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-    </row>
-    <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
     </row>
     <row r="45" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="48"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>20</v>
@@ -1495,10 +1490,10 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="48"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>20</v>
@@ -1508,10 +1503,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
-      <c r="B47" s="48"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>20</v>
@@ -1521,10 +1516,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
-      <c r="B48" s="48"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>20</v>
@@ -1534,10 +1529,10 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
-      <c r="B49" s="48"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>20</v>
@@ -1547,10 +1542,10 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
-      <c r="B50" s="48"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>20</v>
@@ -1560,10 +1555,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
-      <c r="B51" s="48"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>20</v>
@@ -1573,10 +1568,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
-      <c r="B52" s="48"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>20</v>
@@ -1586,19 +1581,19 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
     </row>
     <row r="54" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
-      <c r="B54" s="44" t="s">
+      <c r="A54" s="52"/>
+      <c r="B54" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="47" t="s">
-        <v>28</v>
+      <c r="C54" s="56" t="s">
+        <v>27</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>21</v>
@@ -1608,20 +1603,20 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="47"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="56"/>
       <c r="D55" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E55" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="50" t="s">
+      <c r="A56" s="52"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="58" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="11" t="str">
@@ -1629,73 +1624,73 @@
         <v>H</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="50"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="58"/>
       <c r="D57" s="11" t="str">
         <f>"Na"</f>
         <v>Na</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="50"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="58"/>
       <c r="D58" s="11" t="str">
         <f>"K"</f>
         <v>K</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="43"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="50"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="58"/>
       <c r="D59" s="11" t="str">
         <f>"-OH"</f>
         <v>-OH</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="43"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="50"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="58"/>
       <c r="D60" s="11" t="str">
         <f>"H3O"</f>
         <v>H3O</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="43"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="50"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="58"/>
       <c r="D61" s="11" t="str">
         <f>"NH4"</f>
         <v>NH4</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="43"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="49" t="s">
+      <c r="A62" s="52"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="57" t="s">
         <v>3</v>
       </c>
       <c r="D62" s="10" t="str">
@@ -1707,9 +1702,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="43"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="49"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="57"/>
       <c r="D63" s="10" t="str">
         <f>"-H"</f>
         <v>-H</v>
@@ -1719,9 +1714,9 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="43"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="49"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="57"/>
       <c r="D64" s="10" t="str">
         <f>"OH"</f>
         <v>OH</v>
@@ -1731,9 +1726,9 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="43"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="49"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="57"/>
       <c r="D65" s="10" t="str">
         <f>"Cl"</f>
         <v>Cl</v>
@@ -1795,13 +1790,6 @@
     <sortCondition ref="C34"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="A1:C9"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="B26:C27"/>
     <mergeCell ref="A10:A27"/>
     <mergeCell ref="A28:A65"/>
@@ -1817,6 +1805,13 @@
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C39:E39"/>
+    <mergeCell ref="A1:C9"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/required-files/inputs_file.xlsx
+++ b/required-files/inputs_file.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-hub-repositories\adhoc-data-processing-pipeline\required-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB5CAEC-E456-4BD7-9D85-A3ADCDE46BD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="960" yWindow="-108" windowWidth="22188" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
   <si>
     <t>Outputs path</t>
   </si>
@@ -44,9 +45,6 @@
     <t>Negative</t>
   </si>
   <si>
-    <t>Beatson lipids</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -107,12 +105,6 @@
     <t>General Information</t>
   </si>
   <si>
-    <t>AZ Glycolysis</t>
-  </si>
-  <si>
-    <t>AZ TCA</t>
-  </si>
-  <si>
     <t>Tolerance</t>
   </si>
   <si>
@@ -155,24 +147,12 @@
     <t>Mevalonic aciduria</t>
   </si>
   <si>
-    <t>8 Sphingolipids</t>
-  </si>
-  <si>
-    <t>Beatson LCMS</t>
-  </si>
-  <si>
     <t>NN t-sne</t>
   </si>
   <si>
     <t>Beatson's lists</t>
   </si>
   <si>
-    <t>AZ's lists</t>
-  </si>
-  <si>
-    <t>Other lists</t>
-  </si>
-  <si>
     <t>Pathways</t>
   </si>
   <si>
@@ -182,9 +162,6 @@
     <t>…</t>
   </si>
   <si>
-    <t>Beatson metabolomics &amp; CRUK list</t>
-  </si>
-  <si>
     <t>Shorter Beatson metabolomics &amp; CRUK list</t>
   </si>
   <si>
@@ -203,12 +180,6 @@
     <t>t-sne</t>
   </si>
   <si>
-    <t>Small intestine DESI neg APC-KRAS vs WT</t>
-  </si>
-  <si>
-    <t>Small intestine DESI neg APC-KRAS vs APC</t>
-  </si>
-  <si>
     <t>Highest Intensity</t>
   </si>
   <si>
@@ -231,12 +202,21 @@
   </si>
   <si>
     <t>X:\negDESIprocessing\</t>
+  </si>
+  <si>
+    <t>Marcels Lipid List</t>
+  </si>
+  <si>
+    <t>Our Lists</t>
+  </si>
+  <si>
+    <t>PDAC drugs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -491,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -586,19 +566,61 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -624,51 +646,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,862 +926,775 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="20.7109375" style="3"/>
+    <col min="1" max="1" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="20.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="12" t="s">
         <v>6</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="12" t="s">
-        <v>7</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+    <row r="9" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>20</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>19</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="35" t="s">
-        <v>62</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="33" t="s">
+        <v>52</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>20</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>19</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="34" t="s">
-        <v>60</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="32" t="s">
+        <v>50</v>
       </c>
       <c r="E13" s="21">
         <v>4000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="34" t="s">
-        <v>61</v>
+    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="32" t="s">
+        <v>51</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="40"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="40"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="40"/>
+      <c r="B18" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="40"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
+      <c r="B20" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="40"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="40"/>
+      <c r="B22" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="40"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
+      <c r="B24" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="40"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="15" t="s">
+      <c r="C26" s="36"/>
+      <c r="D26" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="41"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="31"/>
+    </row>
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+    </row>
+    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="42"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="54" t="s">
+      <c r="D29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="31"/>
-    </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="36" t="s">
+      <c r="D30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="42"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="42"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-    </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="36"/>
+    </row>
+    <row r="34" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="26"/>
+    </row>
+    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
-      <c r="B38" s="36"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+    </row>
+    <row r="38" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="42"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+    </row>
+    <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="42"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+    </row>
+    <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="42"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="42"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="42"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="42"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="42"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="42"/>
+      <c r="B46" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="42"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="42"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="42"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+    </row>
+    <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="42"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+    </row>
+    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="42"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-    </row>
-    <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-    </row>
-    <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-    </row>
-    <row r="45" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-    </row>
-    <row r="54" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="52"/>
-      <c r="B54" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="19">
+      <c r="E51" s="19">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="52"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="19">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="42"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="19">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="52"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="58" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="42"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="11" t="str">
+      <c r="D53" s="11" t="str">
         <f>"H"</f>
         <v>H</v>
       </c>
-      <c r="E56" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="52"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="11" t="str">
+      <c r="E53" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="42"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="11" t="str">
         <f>"Na"</f>
         <v>Na</v>
       </c>
-      <c r="E57" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="11" t="str">
+      <c r="E54" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="42"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="11" t="str">
         <f>"K"</f>
         <v>K</v>
       </c>
-      <c r="E58" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="52"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="11" t="str">
+      <c r="E55" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="11" t="str">
         <f>"-OH"</f>
         <v>-OH</v>
       </c>
-      <c r="E59" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="52"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="11" t="str">
+      <c r="E56" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="42"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="11" t="str">
         <f>"H3O"</f>
         <v>H3O</v>
       </c>
-      <c r="E60" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="11" t="str">
+      <c r="E57" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="3"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="11" t="str">
         <f>"NH4"</f>
         <v>NH4</v>
       </c>
-      <c r="E61" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="52"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="57" t="s">
+      <c r="E58" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="3"/>
+      <c r="C59" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="10" t="str">
+      <c r="D59" s="10" t="str">
         <f>"-H3O"</f>
         <v>-H3O</v>
       </c>
-      <c r="E62" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="52"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="10" t="str">
+      <c r="E59" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="3"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="10" t="str">
         <f>"-H"</f>
         <v>-H</v>
       </c>
-      <c r="E63" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="52"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="10" t="str">
+      <c r="E60" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C61" s="48"/>
+      <c r="D61" s="10" t="str">
         <f>"OH"</f>
         <v>OH</v>
       </c>
-      <c r="E64" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="52"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="10" t="str">
+      <c r="E61" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C62" s="48"/>
+      <c r="D62" s="10" t="str">
         <f>"Cl"</f>
         <v>Cl</v>
       </c>
-      <c r="E65" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="3"/>
+      <c r="E62" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="3"/>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="3"/>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-    </row>
   </sheetData>
-  <sortState ref="C34:C42">
-    <sortCondition ref="C34"/>
-  </sortState>
-  <mergeCells count="22">
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="A10:A27"/>
-    <mergeCell ref="A28:A65"/>
-    <mergeCell ref="B54:B65"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="B28:B53"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C56:C61"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C39:E39"/>
+  <mergeCells count="21">
     <mergeCell ref="A1:C9"/>
     <mergeCell ref="B10:B17"/>
     <mergeCell ref="B20:C21"/>
@@ -1812,6 +1702,20 @@
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="A10:A27"/>
+    <mergeCell ref="A28:A57"/>
+    <mergeCell ref="B46:B57"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="B28:B45"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/required-files/inputs_file.xlsx
+++ b/required-files/inputs_file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-hub-repositories\adhoc-data-processing-pipeline\required-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Beatson\negative DESI ibds and imzMLs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB5CAEC-E456-4BD7-9D85-A3ADCDE46BD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245E5875-4CC9-4A60-98A2-28E1D7CDD739}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="-108" windowWidth="22188" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
   <si>
     <t>Outputs path</t>
   </si>
@@ -198,12 +198,6 @@
     <t>95, 99</t>
   </si>
   <si>
-    <t>PDAC</t>
-  </si>
-  <si>
-    <t>X:\negDESIprocessing\</t>
-  </si>
-  <si>
     <t>Marcels Lipid List</t>
   </si>
   <si>
@@ -211,6 +205,18 @@
   </si>
   <si>
     <t>PDAC drugs</t>
+  </si>
+  <si>
+    <t>Beatson</t>
+  </si>
+  <si>
+    <t>Amino Acids</t>
+  </si>
+  <si>
+    <t>Proteinogenic Amino Acids</t>
+  </si>
+  <si>
+    <t>X:\Beatson\data processing outputs ca\</t>
   </si>
 </sst>
 </file>
@@ -326,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -467,11 +473,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -575,6 +590,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,12 +641,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -611,9 +650,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -623,29 +659,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -927,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -939,45 +975,45 @@
     <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" style="29" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="20.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
@@ -986,9 +1022,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
@@ -997,51 +1033,51 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="43" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="33" t="s">
@@ -1052,9 +1088,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="33" t="s">
         <v>52</v>
       </c>
@@ -1063,9 +1099,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="32" t="s">
@@ -1076,9 +1112,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="32" t="s">
         <v>50</v>
       </c>
@@ -1087,9 +1123,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="32" t="s">
         <v>51</v>
       </c>
@@ -1098,17 +1134,17 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="54" t="s">
+      <c r="A15" s="50"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
@@ -1120,8 +1156,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
@@ -1133,11 +1169,11 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="50"/>
+      <c r="B18" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="15" t="s">
         <v>19</v>
       </c>
@@ -1146,20 +1182,20 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="52" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="14" t="s">
         <v>19</v>
       </c>
@@ -1168,31 +1204,31 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="45"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="16" t="s">
         <v>9</v>
       </c>
@@ -1201,11 +1237,11 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="44" t="s">
+      <c r="A24" s="50"/>
+      <c r="B24" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="44"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="8" t="s">
         <v>19</v>
       </c>
@@ -1214,20 +1250,20 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="35" t="s">
+      <c r="A26" s="50"/>
+      <c r="B26" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="36"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="30" t="s">
         <v>19</v>
       </c>
@@ -1236,30 +1272,30 @@
       </c>
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="30" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="31"/>
     </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
+    <row r="28" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="6" t="s">
         <v>17</v>
       </c>
@@ -1271,8 +1307,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="6" t="s">
         <v>43</v>
       </c>
@@ -1284,21 +1320,21 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="61"/>
       <c r="C31" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D31" s="34" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="6" t="s">
         <v>47</v>
       </c>
@@ -1310,8 +1346,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="61"/>
       <c r="C33" s="6" t="s">
         <v>46</v>
       </c>
@@ -1323,8 +1359,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="47"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="6" t="s">
         <v>45</v>
       </c>
@@ -1336,322 +1372,340 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="26"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="26"/>
-    </row>
-    <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="59"/>
+      <c r="B37" s="61"/>
     </row>
     <row r="38" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-    </row>
-    <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="46" t="s">
+      <c r="A38" s="59"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="59"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="59"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+    </row>
+    <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="59"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-    </row>
-    <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+    </row>
+    <row r="42" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="59"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="59"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="59"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="42"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="59"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="59"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
-      <c r="B46" s="43" t="s">
+      <c r="D46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="59"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="59"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="59"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="59"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+    </row>
+    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="59"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+    </row>
+    <row r="52" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="59"/>
+      <c r="B52" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="42"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-    </row>
-    <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-    </row>
-    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="42"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="46" t="s">
+      <c r="C52" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D52" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E52" s="19">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="42"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="12" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="59"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E53" s="19">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="42"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="49" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="59"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="11" t="str">
+      <c r="D54" s="11" t="str">
         <f>"H"</f>
         <v>H</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="E54" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="42"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="11" t="str">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="59"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="11" t="str">
         <f>"Na"</f>
         <v>Na</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E55" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="11" t="str">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="59"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="11" t="str">
         <f>"K"</f>
         <v>K</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E56" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="42"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="11" t="str">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="59"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="11" t="str">
         <f>"-OH"</f>
         <v>-OH</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E57" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="11" t="str">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="59"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="11" t="str">
         <f>"H3O"</f>
         <v>H3O</v>
       </c>
-      <c r="E57" s="27" t="s">
+      <c r="E58" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="3"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="11" t="str">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="59"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="11" t="str">
         <f>"NH4"</f>
         <v>NH4</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E59" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="3"/>
-      <c r="C59" s="48" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="59"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="10" t="str">
+      <c r="D60" s="10" t="str">
         <f>"-H3O"</f>
         <v>-H3O</v>
       </c>
-      <c r="E59" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="3"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="10" t="str">
+      <c r="E60" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="59"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="10" t="str">
         <f>"-H"</f>
         <v>-H</v>
       </c>
-      <c r="E60" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C61" s="48"/>
-      <c r="D61" s="10" t="str">
+      <c r="E61" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="59"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="10" t="str">
         <f>"OH"</f>
         <v>OH</v>
       </c>
-      <c r="E61" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C62" s="48"/>
-      <c r="D62" s="10" t="str">
+      <c r="E62" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="59"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="10" t="str">
         <f>"Cl"</f>
         <v>Cl</v>
       </c>
-      <c r="E62" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+      <c r="E63" s="28" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C64" s="3"/>
@@ -1693,8 +1747,27 @@
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A28:A63"/>
+    <mergeCell ref="B52:B63"/>
+    <mergeCell ref="B28:B51"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="A10:A27"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C51:E51"/>
     <mergeCell ref="A1:C9"/>
     <mergeCell ref="B10:B17"/>
     <mergeCell ref="B20:C21"/>
@@ -1702,20 +1775,6 @@
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="A10:A27"/>
-    <mergeCell ref="A28:A57"/>
-    <mergeCell ref="B46:B57"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="B28:B45"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/required-files/inputs_file.xlsx
+++ b/required-files/inputs_file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Beatson\negative DESI ibds and imzMLs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\2020_Scripts for Data Processing\Git Repository (March 2020)\required-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245E5875-4CC9-4A60-98A2-28E1D7CDD739}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253C799E-11B2-492F-A063-30093D4DFFBA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="-108" windowWidth="22188" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
   <si>
     <t>Outputs path</t>
   </si>
@@ -217,13 +217,19 @@
   </si>
   <si>
     <t>X:\Beatson\data processing outputs ca\</t>
+  </si>
+  <si>
+    <t>U13C-glutamine SLC7a5</t>
+  </si>
+  <si>
+    <t>PI3K Drug List</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +271,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -486,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -593,6 +606,69 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -620,67 +696,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -963,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -980,11 +999,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
       <c r="D1" s="12" t="s">
         <v>15</v>
       </c>
@@ -993,27 +1012,27 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
@@ -1022,9 +1041,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
@@ -1033,36 +1052,36 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="12" t="s">
         <v>0</v>
       </c>
@@ -1071,13 +1090,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="64" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="33" t="s">
@@ -1088,9 +1107,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="44"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="33" t="s">
         <v>52</v>
       </c>
@@ -1099,9 +1118,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="32" t="s">
@@ -1112,9 +1131,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="32" t="s">
         <v>50</v>
       </c>
@@ -1123,9 +1142,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="32" t="s">
         <v>51</v>
       </c>
@@ -1134,17 +1153,17 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="40" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
@@ -1156,8 +1175,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
@@ -1169,11 +1188,11 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
-      <c r="B18" s="39" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="39"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="15" t="s">
         <v>19</v>
       </c>
@@ -1182,20 +1201,20 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="38" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="38"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="14" t="s">
         <v>19</v>
       </c>
@@ -1204,20 +1223,20 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="53"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="16" t="s">
         <v>19</v>
       </c>
@@ -1226,9 +1245,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="16" t="s">
         <v>9</v>
       </c>
@@ -1237,11 +1256,11 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="52" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="52"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="8" t="s">
         <v>19</v>
       </c>
@@ -1250,20 +1269,20 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="45" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="46"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="30" t="s">
         <v>19</v>
       </c>
@@ -1272,30 +1291,30 @@
       </c>
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="30" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="31"/>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="61"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="6" t="s">
         <v>17</v>
       </c>
@@ -1307,8 +1326,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="61"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="6" t="s">
         <v>43</v>
       </c>
@@ -1320,8 +1339,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
-      <c r="B31" s="61"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="6" t="s">
         <v>57</v>
       </c>
@@ -1333,8 +1352,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
-      <c r="B32" s="61"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="6" t="s">
         <v>47</v>
       </c>
@@ -1346,8 +1365,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
-      <c r="B33" s="61"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="6" t="s">
         <v>46</v>
       </c>
@@ -1359,8 +1378,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="61"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="6" t="s">
         <v>45</v>
       </c>
@@ -1372,8 +1391,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="61"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="6" t="s">
         <v>59</v>
       </c>
@@ -1385,8 +1404,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
-      <c r="B36" s="61"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="6" t="s">
         <v>60</v>
       </c>
@@ -1397,320 +1416,337 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
-      <c r="B37" s="61"/>
-    </row>
-    <row r="38" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="54" t="s">
+    <row r="37" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="41"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="41"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="41"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-    </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+    </row>
+    <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="41"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="26" t="s">
+      <c r="D40" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-    </row>
-    <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="54" t="s">
+    <row r="41" spans="1:5" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="41"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+    </row>
+    <row r="42" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="41"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-    </row>
-    <row r="42" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="59"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+    </row>
+    <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="41"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="59"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="41"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="41"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="59"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="41"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="59"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="41"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="41"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="41"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="41"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-    </row>
-    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
+      <c r="D50" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="41"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
     </row>
     <row r="52" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="59"/>
-      <c r="B52" s="63" t="s">
+      <c r="A52" s="41"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+    </row>
+    <row r="53" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="41"/>
+      <c r="B53" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C53" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D53" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E53" s="19">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="59"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="12" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="41"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E54" s="19">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="59"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="56" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="41"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="11" t="str">
+      <c r="D55" s="11" t="str">
         <f>"H"</f>
         <v>H</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E55" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="59"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="11" t="str">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="41"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="11" t="str">
         <f>"Na"</f>
         <v>Na</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E56" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="59"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="11" t="str">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="41"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="11" t="str">
         <f>"K"</f>
         <v>K</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E57" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="59"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="11" t="str">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="41"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="11" t="str">
         <f>"-OH"</f>
         <v>-OH</v>
       </c>
-      <c r="E57" s="27" t="s">
+      <c r="E58" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="59"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="11" t="str">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="41"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="11" t="str">
         <f>"H3O"</f>
         <v>H3O</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E59" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="59"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="11" t="str">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="41"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="11" t="str">
         <f>"NH4"</f>
         <v>NH4</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E60" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="59"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="55" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="41"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="10" t="str">
+      <c r="D61" s="10" t="str">
         <f>"-H3O"</f>
         <v>-H3O</v>
       </c>
-      <c r="E60" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="59"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="10" t="str">
+      <c r="E61" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="41"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="10" t="str">
         <f>"-H"</f>
         <v>-H</v>
       </c>
-      <c r="E61" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="59"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="10" t="str">
+      <c r="E62" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="41"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="10" t="str">
         <f>"OH"</f>
         <v>OH</v>
       </c>
-      <c r="E62" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="59"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="10" t="str">
+      <c r="E63" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="41"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="10" t="str">
         <f>"Cl"</f>
         <v>Cl</v>
       </c>
-      <c r="E63" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="E64" s="28" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C65" s="3"/>
@@ -1752,22 +1788,13 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A28:A63"/>
-    <mergeCell ref="B52:B63"/>
-    <mergeCell ref="B28:B51"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="A10:A27"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C51:E51"/>
     <mergeCell ref="A1:C9"/>
     <mergeCell ref="B10:B17"/>
     <mergeCell ref="B20:C21"/>
@@ -1775,6 +1802,20 @@
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="A10:A27"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A28:A64"/>
+    <mergeCell ref="B53:B64"/>
+    <mergeCell ref="B28:B52"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C52:E52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/required-files/inputs_file.xlsx
+++ b/required-files/inputs_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\2020_Scripts for Data Processing\Git Repository (March 2020)\required-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253C799E-11B2-492F-A063-30093D4DFFBA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACC260E-5B76-4886-BFFA-4AD036536B41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="65">
   <si>
     <t>Outputs path</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>PI3K Drug List</t>
+  </si>
+  <si>
+    <t>Beatson_U13C Leucine</t>
   </si>
 </sst>
 </file>
@@ -606,15 +609,75 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -640,66 +703,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -982,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -999,11 +1002,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="12" t="s">
         <v>15</v>
       </c>
@@ -1012,27 +1015,27 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
@@ -1041,9 +1044,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
@@ -1052,36 +1055,36 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="12" t="s">
         <v>0</v>
       </c>
@@ -1090,13 +1093,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="45" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="33" t="s">
@@ -1107,9 +1110,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="65"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="33" t="s">
         <v>52</v>
       </c>
@@ -1118,9 +1121,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="32" t="s">
@@ -1131,9 +1134,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="32" t="s">
         <v>50</v>
       </c>
@@ -1142,9 +1145,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="32" t="s">
         <v>51</v>
       </c>
@@ -1153,17 +1156,17 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="61" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
@@ -1175,8 +1178,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
@@ -1188,11 +1191,11 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
-      <c r="B18" s="60" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="60"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="15" t="s">
         <v>19</v>
       </c>
@@ -1201,20 +1204,20 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="59" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="59"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="14" t="s">
         <v>19</v>
       </c>
@@ -1223,20 +1226,20 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="52"/>
+      <c r="B22" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="56"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="16" t="s">
         <v>19</v>
       </c>
@@ -1245,9 +1248,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="16" t="s">
         <v>9</v>
       </c>
@@ -1256,11 +1259,11 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="55" t="s">
+      <c r="A24" s="52"/>
+      <c r="B24" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="55"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="8" t="s">
         <v>19</v>
       </c>
@@ -1269,20 +1272,20 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="53"/>
-      <c r="B26" s="48" t="s">
+      <c r="A26" s="52"/>
+      <c r="B26" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="30" t="s">
         <v>19</v>
       </c>
@@ -1291,30 +1294,30 @@
       </c>
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="30" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="31"/>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="6" t="s">
         <v>17</v>
       </c>
@@ -1326,8 +1329,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="6" t="s">
         <v>43</v>
       </c>
@@ -1339,8 +1342,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="46"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="6" t="s">
         <v>57</v>
       </c>
@@ -1352,8 +1355,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="6" t="s">
         <v>47</v>
       </c>
@@ -1365,8 +1368,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="6" t="s">
         <v>46</v>
       </c>
@@ -1378,8 +1381,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
-      <c r="B34" s="46"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="6" t="s">
         <v>45</v>
       </c>
@@ -1391,8 +1394,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="B35" s="46"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="6" t="s">
         <v>59</v>
       </c>
@@ -1404,8 +1407,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="46"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="6" t="s">
         <v>60</v>
       </c>
@@ -1416,385 +1419,412 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="46"/>
+    <row r="37" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="61"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="35" t="s">
         <v>62</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
-      <c r="B38" s="46"/>
+      <c r="E37" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="61"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="35" t="s">
         <v>63</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="38" t="s">
+      <c r="E38" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="61"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="61"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-    </row>
-    <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+    </row>
+    <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="61"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="26" t="s">
+      <c r="D41" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-    </row>
-    <row r="42" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="38" t="s">
+    <row r="42" spans="1:5" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="61"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+    </row>
+    <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="61"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-    </row>
-    <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+    </row>
+    <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="61"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="61"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="61"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="41"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="61"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="41"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="61"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="41"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="61"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="61"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="41"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="61"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-    </row>
-    <row r="52" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="41"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
+      <c r="D51" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="61"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
     </row>
     <row r="53" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="41"/>
-      <c r="B53" s="42" t="s">
+      <c r="A53" s="61"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+    </row>
+    <row r="54" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="61"/>
+      <c r="B54" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C54" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D54" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E54" s="19">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="41"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="12" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="61"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E55" s="19">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="37" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="61"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="11" t="str">
+      <c r="D56" s="11" t="str">
         <f>"H"</f>
         <v>H</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E56" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="41"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="11" t="str">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="61"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="11" t="str">
         <f>"Na"</f>
         <v>Na</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E57" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="41"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="11" t="str">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="61"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="11" t="str">
         <f>"K"</f>
         <v>K</v>
       </c>
-      <c r="E57" s="27" t="s">
+      <c r="E58" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="41"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="11" t="str">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="61"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="11" t="str">
         <f>"-OH"</f>
         <v>-OH</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E59" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="41"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="11" t="str">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="61"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="11" t="str">
         <f>"H3O"</f>
         <v>H3O</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E60" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="41"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="11" t="str">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="61"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="11" t="str">
         <f>"NH4"</f>
         <v>NH4</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="E61" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="41"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="36" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="61"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="10" t="str">
+      <c r="D62" s="10" t="str">
         <f>"-H3O"</f>
         <v>-H3O</v>
       </c>
-      <c r="E61" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="41"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="10" t="str">
+      <c r="E62" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="61"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="10" t="str">
         <f>"-H"</f>
         <v>-H</v>
       </c>
-      <c r="E62" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="41"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="10" t="str">
+      <c r="E63" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="61"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="10" t="str">
         <f>"OH"</f>
         <v>OH</v>
       </c>
-      <c r="E63" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="41"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="10" t="str">
+      <c r="E64" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="61"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="10" t="str">
         <f>"Cl"</f>
         <v>Cl</v>
       </c>
-      <c r="E64" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E65" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C56:C61"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A28:A65"/>
+    <mergeCell ref="B54:B65"/>
+    <mergeCell ref="B28:B53"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="A10:A27"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="C40:E40"/>
     <mergeCell ref="A1:C9"/>
     <mergeCell ref="B10:B17"/>
     <mergeCell ref="B20:C21"/>
@@ -1802,20 +1832,6 @@
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="A10:A27"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A28:A64"/>
-    <mergeCell ref="B53:B64"/>
-    <mergeCell ref="B28:B52"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C52:E52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/required-files/inputs_file.xlsx
+++ b/required-files/inputs_file.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\2020_Scripts for Data Processing\Git Repository (March 2020)\required-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tm6\Documents\GitHub\adhoc-data-processing-pipeline\required-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACC260E-5B76-4886-BFFA-4AD036536B41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="66">
   <si>
     <t>Outputs path</t>
   </si>
@@ -226,12 +225,15 @@
   </si>
   <si>
     <t>Beatson_U13C Leucine</t>
+  </si>
+  <si>
+    <t>fdc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,25 +309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,13 +321,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,10 +505,10 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -502,14 +516,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -525,31 +536,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -564,67 +560,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -636,11 +620,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -648,61 +662,67 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -711,6 +731,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -984,847 +1009,855 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="20.6640625" style="3"/>
+    <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="20.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="12" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="12" t="s">
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="12" t="s">
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="66" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="12" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="66" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="12" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="12" t="s">
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="12" t="s">
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="12" t="s">
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="65" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="22" t="s">
+      <c r="D10" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="33" t="s">
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39" t="s">
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="32" t="s">
+      <c r="D12" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="40">
         <v>4000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="32" t="s">
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="42" t="s">
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="2" t="s">
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="64" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="7" t="s">
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52"/>
-      <c r="B18" s="41" t="s">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="60"/>
+      <c r="B18" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="22" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="15" t="s">
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52"/>
-      <c r="B20" s="40" t="s">
+      <c r="E19" s="37"/>
+    </row>
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="60"/>
+      <c r="B20" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="23" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="14" t="s">
+    <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="60"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
-      <c r="B22" s="55" t="s">
+      <c r="E21" s="40"/>
+    </row>
+    <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="60"/>
+      <c r="B22" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="24" t="s">
+      <c r="C22" s="41"/>
+      <c r="D22" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="16" t="s">
+    <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="60"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
-      <c r="B24" s="54" t="s">
+      <c r="E23" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
+      <c r="B24" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="25" t="s">
+      <c r="C24" s="44"/>
+      <c r="D24" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="46" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="8" t="s">
+    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="60"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
+      <c r="E25" s="46"/>
+    </row>
+    <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
       <c r="B26" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="48"/>
-      <c r="D26" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="31" t="s">
+      <c r="D26" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="30" t="s">
+    <row r="27" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="31"/>
-    </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="60" t="s">
+      <c r="E27" s="50"/>
+    </row>
+    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="60"/>
+      <c r="B28" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="61"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="56"/>
+    </row>
+    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B30" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C30" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-    </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="6" t="s">
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="68"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="6" t="s">
+      <c r="D31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="68"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="6" t="s">
+      <c r="D32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="68"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="26" t="s">
+      <c r="D33" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="6" t="s">
+    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="68"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="6" t="s">
+      <c r="D34" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="68"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="26" t="s">
+      <c r="D35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="6" t="s">
+    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="68"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="61"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="6" t="s">
+      <c r="D36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="68"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="61"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="6" t="s">
+      <c r="D37" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="68"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="35" t="s">
+      <c r="D38" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="68"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="35" t="s">
+      <c r="D39" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="68"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="61"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="35" t="s">
+      <c r="D40" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="68"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="61"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="56" t="s">
+      <c r="D41" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="68"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-    </row>
-    <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="61"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="6" t="s">
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+    </row>
+    <row r="43" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="68"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="26" t="s">
+      <c r="D43" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-    </row>
-    <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="61"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="56" t="s">
+    <row r="44" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="68"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="68"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-    </row>
-    <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="61"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="6" t="s">
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+    </row>
+    <row r="46" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="68"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="61"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="6" t="s">
+      <c r="D46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="68"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="61"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="6" t="s">
+      <c r="D47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="68"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="61"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="6" t="s">
+      <c r="D48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="68"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="61"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="6" t="s">
+      <c r="D49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="68"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="61"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="6" t="s">
+      <c r="D50" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="68"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="61"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="6" t="s">
+      <c r="D51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="68"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="61"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="6" t="s">
+      <c r="D52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="68"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="61"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-    </row>
-    <row r="53" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="61"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-    </row>
-    <row r="54" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="61"/>
-      <c r="B54" s="62" t="s">
+      <c r="D53" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="68"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="68"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="68"/>
+      <c r="B56" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C56" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D56" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E56" s="66">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="61"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="12" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="68"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E57" s="66">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="61"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="58" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="68"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="11" t="str">
+      <c r="D58" s="9" t="str">
         <f>"H"</f>
         <v>H</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E58" s="66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="61"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="11" t="str">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="68"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="9" t="str">
         <f>"Na"</f>
         <v>Na</v>
       </c>
-      <c r="E57" s="27" t="s">
+      <c r="E59" s="66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="61"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="11" t="str">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="68"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="9" t="str">
         <f>"K"</f>
         <v>K</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E60" s="66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="61"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="11" t="str">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="68"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="9" t="str">
         <f>"-OH"</f>
         <v>-OH</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E61" s="66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="61"/>
-      <c r="B60" s="63"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="11" t="str">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="68"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="9" t="str">
         <f>"H3O"</f>
         <v>H3O</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="E62" s="66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="61"/>
-      <c r="B61" s="63"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="11" t="str">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="68"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="9" t="str">
         <f>"NH4"</f>
         <v>NH4</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E63" s="66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="61"/>
-      <c r="B62" s="63"/>
-      <c r="C62" s="57" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="68"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="10" t="str">
+      <c r="D64" s="8" t="str">
         <f>"-H3O"</f>
         <v>-H3O</v>
       </c>
-      <c r="E62" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="61"/>
-      <c r="B63" s="63"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="10" t="str">
+      <c r="E64" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="68"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="8" t="str">
         <f>"-H"</f>
         <v>-H</v>
       </c>
-      <c r="E63" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="61"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="10" t="str">
+      <c r="E65" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="68"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="8" t="str">
         <f>"OH"</f>
         <v>OH</v>
       </c>
-      <c r="E64" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="61"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="10" t="str">
+      <c r="E66" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="69"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="8" t="str">
         <f>"Cl"</f>
         <v>Cl</v>
       </c>
-      <c r="E65" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
+      <c r="E67" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C56:C61"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A28:A65"/>
-    <mergeCell ref="B54:B65"/>
-    <mergeCell ref="B28:B53"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="A10:A27"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="C40:E40"/>
+  <mergeCells count="22">
     <mergeCell ref="A1:C9"/>
     <mergeCell ref="B10:B17"/>
     <mergeCell ref="B20:C21"/>
@@ -1832,6 +1865,21 @@
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="A10:A29"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A30:A67"/>
+    <mergeCell ref="B56:B67"/>
+    <mergeCell ref="B30:B55"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C55:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
